--- a/jour20.xlsx
+++ b/jour20.xlsx
@@ -40,118 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sakho', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Maurer', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Sylla', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['David', 'Martin']</t>
+    <t>['Bryan', 'Beka', 'Beka']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Gameiro']</t>
+    <t>['Del_Castillo', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Assignon', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Kabore']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Balde', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Rodon', 'Traore', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Delort']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Serhuis', 'Cajuste']</t>
+    <t>['Perrin', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Aguilar', 'Henrique', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Moalida', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Soler']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Michelin', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Balde', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
   </si>
 </sst>
 </file>
@@ -546,28 +546,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,28 +575,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
@@ -633,28 +633,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,22 +668,22 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -691,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,25 +723,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,25 +752,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,28 +778,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -807,28 +807,28 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour20.xlsx
+++ b/jour20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Bryan', 'Beka', 'Beka']</t>
+    <t>['Mothiba', 'Gameiro', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Sanches', 'Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Del_Castillo', 'Duverne']</t>
+    <t>['Bryan', 'Brahimi', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Odobert', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Dallinga', 'Onaiwu']</t>
   </si>
   <si>
     <t>['Fonte', 'Gomes']</t>
   </si>
   <si>
-    <t>['Majer', 'Assignon', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Kabore']</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Aguilar', 'Henrique', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Moalida', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Soler']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Michelin', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Balde', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Lega']</t>
+    <t>['Aguilar', 'Maripan', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Terrier', 'Theate', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Corduan', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Le_Fee']</t>
   </si>
 </sst>
 </file>
@@ -552,22 +555,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,28 +578,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -619,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -633,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -662,28 +665,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -691,25 +694,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -720,28 +723,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -749,25 +752,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -778,25 +781,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,28 +810,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour20.xlsx
+++ b/jour20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,34 +40,73 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mothiba', 'Gameiro', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Sanches', 'Sanches', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
+    <t>['Masson', 'Bamba', 'Sima', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Lebas', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Gastien']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Bryan', 'Brahimi', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Odobert', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Munetsi']</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Strasbourg</t>
@@ -76,85 +115,49 @@
     <t>PSG</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Dallinga', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Fonte', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Maripan', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Terrier', 'Theate', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Corduan', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Le_Fee']</t>
+    <t>['Cajuste', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Theate', 'Assignon', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Mothiba', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Aboukhlal', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Dugimont', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Attal', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Ben_Yedder']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,24 +648,24 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -683,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -706,24 +709,24 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,27 +764,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -799,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -828,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>2</v>

--- a/jour20.xlsx
+++ b/jour20.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Masson', 'Bamba', 'Sima', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Lebas', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Gastien']</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
+    <t>['Payet', 'Kabore', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Fortes', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Versini', 'Wieteska', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Pallois', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Magnetti']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
+  </si>
+  <si>
+    <t>['Sanson']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Ajaccio</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>OM</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Theate', 'Assignon', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Mothiba', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Aboukhlal', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Cherki']</t>
-  </si>
-  <si>
-    <t>['Dugimont', 'Dugimont', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Ben_Yedder']</t>
+    <t>['ChaÃ¯bi', 'ChaÃ¯bi', 'Dallinga', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Chavalerin', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Corduan']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Jeanvier', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Lopy', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Terrier', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Pepe', 'Dante']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +718,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,12 +776,12 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour20.xlsx
+++ b/jour20.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +43,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Chavalerin', 'Palaversa', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Beka', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Tolisso', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Elis']</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Hamouma', "N'Diaye", "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Bain', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Sima', 'Alioui']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Gigot', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Neymar', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
   </si>
   <si>
     <t>['Lopez']</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Gomes']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Guessand']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Lopy', 'Moalida', 'Moalida']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Bamba', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Valencia', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Matsima', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski', 'Jeanvier', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
+    <t>['Kalimuendo', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Savanier', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Alphonse']</t>
+  </si>
+  <si>
+    <t>['Wahi']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Onaiwu']</t>
   </si>
 </sst>
 </file>
@@ -509,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,295 +540,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>38</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>36</v>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
